--- a/УП 02/Метод.xlsx
+++ b/УП 02/Метод.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -88,12 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -377,7 +383,7 @@
   <dimension ref="B1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,16 +602,16 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <f>D11-B11</f>
-        <v>8</v>
+        <f>D12-B12</f>
+        <v>5</v>
       </c>
       <c r="E10">
         <f>E12-B12</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <f>F13-B13</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -615,20 +621,20 @@
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>D12-D10</f>
-        <v>-6</v>
+        <f>C12-C10</f>
+        <v>-3</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -639,19 +645,19 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>E13-E10</f>
-        <v>-3</v>
-      </c>
-      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="1">
